--- a/friendslist.xlsx
+++ b/friendslist.xlsx
@@ -2685,15 +2685,6 @@
     <t>葛天宇</t>
   </si>
   <si>
-    <t>MADFIBER</t>
-  </si>
-  <si>
-    <t>阿斯顿  马丁</t>
-  </si>
-  <si>
-    <t>王子敬</t>
-  </si>
-  <si>
     <t>柯振</t>
   </si>
   <si>
@@ -2786,6 +2777,15 @@
   </si>
   <si>
     <t>胡纪亮 亮子</t>
+  </si>
+  <si>
+    <t>MADFIBER</t>
+  </si>
+  <si>
+    <t>阿斯顿  马丁</t>
+  </si>
+  <si>
+    <t>王子敬</t>
   </si>
 </sst>
 </file>
@@ -8481,29 +8481,27 @@
         <v>1</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="E357" s="1" t="s">
-        <v>887</v>
-      </c>
+      <c r="E357" s="1"/>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B358" s="2">
+        <v>1</v>
+      </c>
+      <c r="C358" s="2"/>
+      <c r="D358" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="B358" s="2">
-        <v>1</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D358" s="2" t="s">
+      <c r="E358" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="E358" s="2"/>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="1" t="s">
@@ -8527,7 +8525,9 @@
       <c r="B360" s="2">
         <v>1</v>
       </c>
-      <c r="C360" s="2"/>
+      <c r="C360" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D360" s="2" t="s">
         <v>894</v>
       </c>
@@ -8543,24 +8543,22 @@
         <v>1</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D361" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D361" s="1"/>
+      <c r="E361" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="E361" s="1" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B362" s="2">
+        <v>2</v>
+      </c>
+      <c r="C362" s="2" t="s">
         <v>899</v>
-      </c>
-      <c r="B362" s="2">
-        <v>1</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2" t="s">
@@ -8572,12 +8570,14 @@
         <v>901</v>
       </c>
       <c r="B363" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C363" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D363" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="D363" s="1"/>
       <c r="E363" s="1" t="s">
         <v>903</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>9</v>
+        <v>647</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>905</v>
@@ -8607,39 +8607,39 @@
         <v>1</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="D365" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D365" s="1"/>
+      <c r="E365" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="E365" s="1" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B366" s="2">
+        <v>1</v>
+      </c>
+      <c r="C366" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="B366" s="2">
-        <v>1</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D366" s="2"/>
+      <c r="D366" s="2" t="s">
+        <v>911</v>
+      </c>
       <c r="E366" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B367" s="1">
         <v>1</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>913</v>
+        <v>19</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>914</v>
